--- a/biology/Histoire de la zoologie et de la botanique/William_Starling_Sullivant/William_Starling_Sullivant.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Starling_Sullivant/William_Starling_Sullivant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Starling Sullivant est un homme d'affaires et un  botaniste américain, né le 15 janvier 1803 à Franklinton, aujourd’hui une partie de Columbus dans l'Ohio et mort le 30 avril 1873 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Lucas Sullivant, un homme d’affaires et propriétaire terrien, et de Sarah née Starling. Il fréquente l’école privée de Samuel Wilson dans le comté de Jessamine dans le Kentucky puis passe un an à l’université de l’Ohio à Athens. Il obtient son Bachelor of Arts en 1823 au Yale College. Sullivant se marie trois fois : avec Jane Marshall en 1824 (celle-ci meurt en 1825), avec Eliza Griscom Wheeler en 1834 (celle-ci meurt en 1850) et enfin, en 1851, avec Caroline Eudora Sutton (celle-ci meurt en 1891). Treize enfants naîtront de ces différentes unions.
 À la mort de son père, il hérite des affaires et des riches propriétés de son père. Il étend ses activités dans le domaine des moulins, de carrières, d’activités bancaires, de réseaux de transport, de canaux et bien d’autres activités en relation avec de la recherche en génie civil. Il commence à s’intéresser à la botanique en 1834, sans doute sous l’influence de sa deuxième épouse et de son frère, Joseph.
@@ -548,7 +562,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Keir B. Sterling, Richard P. Harmond, George A. Cevasco &amp; Lorne F. Hammond (dir.) (1997). Biographical dictionary of American and Canadian naturalists and environmentalists. Greenwood Press (Westport) : xix + 937 p.  (ISBN 0-313-23047-1)</t>
         </is>
